--- a/training_data/2021/fielding.xlsx
+++ b/training_data/2021/fielding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex_1/Desktop/MVP-Predictor/training_data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA67081-B041-1148-BBEF-7D4FC15500CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5833CD1E-E118-1A4C-9EEA-DE4F68CA449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{2D9DFD1F-E3A1-6545-82E3-FCE17097217B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6014" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6013" uniqueCount="1690">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -5103,9 +5103,6 @@
   </si>
   <si>
     <t>Mike Zunino</t>
-  </si>
-  <si>
-    <t>Provided by &lt;a href="https://www.sports-reference.com/sharing.html?utm_source=direct&amp;utm_medium=Share&amp;utm_campaign=ShareTool"&gt;Baseball-Reference.com&lt;/a&gt;: &lt;a href="https://www.baseball-reference.com/leagues/majors/2021-standard-fielding.shtml?sr&amp;utm_source=direct&amp;utm_medium=Share&amp;utm_campaign=ShareTool#players_players_standard_fielding_fielding"&gt;View Original Table&lt;/a&gt;&lt;br&gt;Generated 9/11/2023.</t>
   </si>
   <si>
     <t>Pos</t>
@@ -5460,10 +5457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429594C-DCFD-D948-9352-1F0A17A69E75}">
-  <dimension ref="A4:H1509"/>
+  <dimension ref="A4:H1506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A1493" workbookViewId="0">
+      <selection activeCell="A1509" sqref="A1509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5496,7 +5493,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -41994,11 +41991,6 @@
       </c>
       <c r="H1506" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1509" t="s">
-        <v>1689</v>
       </c>
     </row>
   </sheetData>
